--- a/test.xlsx
+++ b/test.xlsx
@@ -15,7 +15,74 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+  <si>
+    <t>maandag</t>
+  </si>
+  <si>
+    <t>3 jan 2019</t>
+  </si>
+  <si>
+    <t>3e</t>
+  </si>
+  <si>
+    <t>Chris</t>
+  </si>
+  <si>
+    <t>Boersma</t>
+  </si>
+  <si>
+    <t>3tn2</t>
+  </si>
+  <si>
+    <t>p5</t>
+  </si>
+  <si>
+    <t>soortelijke warmte</t>
+  </si>
+  <si>
+    <t>natuurkunde</t>
+  </si>
+  <si>
+    <t>Anton</t>
+  </si>
+  <si>
+    <t>van</t>
+  </si>
+  <si>
+    <t>Dijk</t>
+  </si>
+  <si>
+    <t>3gt</t>
+  </si>
+  <si>
+    <t>dinsdag</t>
+  </si>
+  <si>
+    <t>4 jan</t>
+  </si>
+  <si>
+    <t>5e</t>
+  </si>
+  <si>
+    <t>piet</t>
+  </si>
+  <si>
+    <t>jansen</t>
+  </si>
+  <si>
+    <t>3gt1</t>
+  </si>
+  <si>
+    <t>5b</t>
+  </si>
+  <si>
+    <t>de slinger</t>
+  </si>
+  <si>
+    <t>nask</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -349,14 +416,131 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A2:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s"/>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s"/>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s"/>
+      <c r="E5" t="s"/>
+      <c r="F5" t="s"/>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>